--- a/RenduExcel.xlsx
+++ b/RenduExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehdi\OneDrive\Documents\QualiDev\SEBBAK-FOUCHER-BALDONI-mesures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f23022625\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E8A54C-E046-4D67-B495-8F30999AAA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86B8080A-EA21-40F9-930A-F840C5BC7F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="3" xr2:uid="{BF111D66-066C-44FC-9E62-880C9479279D}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{BF111D66-066C-44FC-9E62-880C9479279D}"/>
   </bookViews>
   <sheets>
     <sheet name="Loc" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Fichier</t>
   </si>
@@ -119,47 +117,67 @@
     <t>Bugs</t>
   </si>
   <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Quantite</t>
-  </si>
-  <si>
-    <t>Poids</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
-    <t>Ecran alerte simple</t>
-  </si>
-  <si>
-    <t>Ecran formulaire</t>
-  </si>
-  <si>
-    <t>Fonction métier</t>
-  </si>
-  <si>
-    <t>Module de gestion</t>
-  </si>
-  <si>
-    <t>API externe</t>
+    <t>Fonction</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Complexité</t>
+  </si>
+  <si>
+    <t>Poids Relatif</t>
+  </si>
+  <si>
+    <t>Score UFC</t>
+  </si>
+  <si>
+    <t>Formulaire de saisie</t>
+  </si>
+  <si>
+    <t>Confirmation de commande</t>
+  </si>
+  <si>
+    <t>Gestion des produits</t>
+  </si>
+  <si>
+    <t>Interface de paiement</t>
+  </si>
+  <si>
+    <t>Requête produit</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>RE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,9 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,9 +544,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -552,7 +571,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -576,15 +595,15 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -607,7 +626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -633,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>4</v>
       </c>
@@ -644,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>5</v>
       </c>
@@ -655,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -666,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>6</v>
       </c>
@@ -677,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>7</v>
       </c>
@@ -688,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>8</v>
       </c>
@@ -699,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>6</v>
       </c>
@@ -710,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -721,7 +740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -729,7 +748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -750,12 +769,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -763,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -771,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -779,7 +798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -787,7 +806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -796,7 +815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -805,7 +824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -814,7 +833,7 @@
         <v>351.55490009807721</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -823,7 +842,7 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -832,7 +851,7 @@
         <v>1807.9966290758257</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -841,7 +860,7 @@
         <v>100.44425717087921</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -857,19 +876,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A52282-07ED-42EB-A326-84230F3701EE}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -886,89 +905,105 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <f>B2*C2</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">C3*D3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D8">
-        <f>SUM(D2:D6)</f>
-        <v>88</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="2">
+        <f>SUM(E2:E6)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1161,20 +1196,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="00e47fa2-6af5-44d7-9dc7-05f6e053fd25" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="00e47fa2-6af5-44d7-9dc7-05f6e053fd25" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1196,14 +1231,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E7F120-296C-4137-9573-7986C8B7A866}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F123D3E-927A-4371-BF73-704DC3E1E573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1217,4 +1244,12 @@
     <ds:schemaRef ds:uri="00e47fa2-6af5-44d7-9dc7-05f6e053fd25"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E7F120-296C-4137-9573-7986C8B7A866}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RenduExcel.xlsx
+++ b/RenduExcel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehdi\OneDrive\Documents\QualiDev\SEBBAK-FOUCHER-BALDONI-mesures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E8A54C-E046-4D67-B495-8F30999AAA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941E32FB-2129-483E-BC00-D4C5B8A3D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="3" xr2:uid="{BF111D66-066C-44FC-9E62-880C9479279D}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" activeTab="4" xr2:uid="{BF111D66-066C-44FC-9E62-880C9479279D}"/>
   </bookViews>
   <sheets>
     <sheet name="Loc" sheetId="1" r:id="rId1"/>
     <sheet name="CC" sheetId="2" r:id="rId2"/>
     <sheet name="Feuille de comptage" sheetId="3" r:id="rId3"/>
     <sheet name="UFC" sheetId="4" r:id="rId4"/>
+    <sheet name="UFC score" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Fichier</t>
   </si>
@@ -147,6 +148,42 @@
   </si>
   <si>
     <t>API externe</t>
+  </si>
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Poids simple</t>
+  </si>
+  <si>
+    <t>Poids moyen</t>
+  </si>
+  <si>
+    <t>Poids difficile</t>
+  </si>
+  <si>
+    <t>Score Simple</t>
+  </si>
+  <si>
+    <t>Score Moyen</t>
+  </si>
+  <si>
+    <t>Score difficile</t>
+  </si>
+  <si>
+    <t>Entrées ext</t>
+  </si>
+  <si>
+    <t>Sorties ext</t>
+  </si>
+  <si>
+    <t>Requetes ext</t>
+  </si>
+  <si>
+    <t>Fichiers int</t>
+  </si>
+  <si>
+    <t>Fichiers ext</t>
   </si>
 </sst>
 </file>
@@ -859,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A52282-07ED-42EB-A326-84230F3701EE}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
         <v>9</v>
       </c>
     </row>
@@ -965,6 +1002,188 @@
       <c r="D8">
         <f>SUM(D2:D6)</f>
         <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9353429-691A-4518-8A42-29528C60CA66}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -973,6 +1192,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="00e47fa2-6af5-44d7-9dc7-05f6e053fd25" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD41C8BA181F59419EAB8A93DFE5D116" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="950de2398ed76651633d861d1585b41f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="00e47fa2-6af5-44d7-9dc7-05f6e053fd25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46b83f6a5a00534dc19ea90c544a87b4" ns3:_="">
     <xsd:import namespace="00e47fa2-6af5-44d7-9dc7-05f6e053fd25"/>
@@ -1160,24 +1396,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F123D3E-927A-4371-BF73-704DC3E1E573}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00e47fa2-6af5-44d7-9dc7-05f6e053fd25"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="00e47fa2-6af5-44d7-9dc7-05f6e053fd25" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E7F120-296C-4137-9573-7986C8B7A866}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7309450A-6C16-4F0D-80A6-1A36542A4A4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1193,28 +1436,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E7F120-296C-4137-9573-7986C8B7A866}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F123D3E-927A-4371-BF73-704DC3E1E573}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00e47fa2-6af5-44d7-9dc7-05f6e053fd25"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RenduExcel.xlsx
+++ b/RenduExcel.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehdi\OneDrive\Documents\QualiDev\SEBBAK-FOUCHER-BALDONI-mesures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehdi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941E32FB-2129-483E-BC00-D4C5B8A3D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA600513-E9B9-4F88-9942-C61B0C7F5EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" activeTab="4" xr2:uid="{BF111D66-066C-44FC-9E62-880C9479279D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loc" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,10 @@
     <sheet name="Feuille de comptage" sheetId="3" r:id="rId3"/>
     <sheet name="UFC" sheetId="4" r:id="rId4"/>
     <sheet name="UFC score" sheetId="5" r:id="rId5"/>
+    <sheet name="MI_calc" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Fichier</t>
   </si>
@@ -66,27 +64,27 @@
     <t>Destination</t>
   </si>
   <si>
+    <t>Nombre d'arcs</t>
+  </si>
+  <si>
+    <t>Nœuds</t>
+  </si>
+  <si>
+    <t>Nombre de nœuds</t>
+  </si>
+  <si>
+    <t>P (nombres de composantes</t>
+  </si>
+  <si>
+    <t>Complexité Cyclomatique (CC)</t>
+  </si>
+  <si>
     <t>Départ</t>
   </si>
   <si>
     <t>Fin</t>
   </si>
   <si>
-    <t>Nombre d'arcs</t>
-  </si>
-  <si>
-    <t>Nombre de nœuds</t>
-  </si>
-  <si>
-    <t>P (nombres de composantes</t>
-  </si>
-  <si>
-    <t>Complexité Cyclomatique (CC)</t>
-  </si>
-  <si>
-    <t>Nœuds</t>
-  </si>
-  <si>
     <t>Opérateurs distincts (n1)</t>
   </si>
   <si>
@@ -184,6 +182,27 @@
   </si>
   <si>
     <t>Fichiers ext</t>
+  </si>
+  <si>
+    <t>Paramètre</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>HV (Volume Halstead)</t>
+  </si>
+  <si>
+    <t>CC (Complexité Cyclomatique)</t>
+  </si>
+  <si>
+    <t>LOC (Lignes de Code)</t>
+  </si>
+  <si>
+    <t>COM (Commentaire / Poids)</t>
+  </si>
+  <si>
+    <t>Index de Maintenabilité (MI)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D83D082-6AF1-4650-A38C-5C107A16317F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -606,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F560088-B045-46D5-8CFC-77EAE048DF38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -629,24 +648,24 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -686,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -755,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -771,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -780,10 +799,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109D8E57-F971-4284-B758-52F8C3E2FD0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -893,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A52282-07ED-42EB-A326-84230F3701EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -949,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
+        <f>B3*C3</f>
         <v>9</v>
       </c>
     </row>
@@ -964,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>B4*C4</f>
         <v>50</v>
       </c>
     </row>
@@ -979,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>B5*C5</f>
         <v>14</v>
       </c>
     </row>
@@ -994,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>B6*C6</f>
         <v>10</v>
       </c>
     </row>
@@ -1010,10 +1029,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9353429-691A-4518-8A42-29528C60CA66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1191,249 +1210,72 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="00e47fa2-6af5-44d7-9dc7-05f6e053fd25" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD41C8BA181F59419EAB8A93DFE5D116" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="950de2398ed76651633d861d1585b41f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="00e47fa2-6af5-44d7-9dc7-05f6e053fd25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46b83f6a5a00534dc19ea90c544a87b4" ns3:_="">
-    <xsd:import namespace="00e47fa2-6af5-44d7-9dc7-05f6e053fd25"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00e47fa2-6af5-44d7-9dc7-05f6e053fd25" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_activity" ma:index="8" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="9" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="12" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="14" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F123D3E-927A-4371-BF73-704DC3E1E573}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00e47fa2-6af5-44d7-9dc7-05f6e053fd25"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E7F120-296C-4137-9573-7986C8B7A866}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7309450A-6C16-4F0D-80A6-1A36542A4A4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00e47fa2-6af5-44d7-9dc7-05f6e053fd25"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>351.55490009807721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>143.07370512257671</v>
+      </c>
+      <c r="C7">
+        <f>171 - 5.2 * LN(B2) - 0.23 * B3 - 16.2 * LN(B4) + 50 * SIN(SQRT(2.46 * B5))</f>
+        <v>143.07370512257671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>